--- a/docs/info/EPA_1-1_Assessor_Train_25/DTS_EPA_1_1_Pack_v2/COM625_AE2_AE3_grader_2025_v2.xlsx
+++ b/docs/info/EPA_1-1_Assessor_Train_25/DTS_EPA_1_1_Pack_v2/COM625_AE2_AE3_grader_2025_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinreid/Desktop/DTS_EPA_1_1_Pack_OLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/Documents/GitHub/bdats/docs/info/EPA_1-1_Assessor_Train_25/DTS_EPA_1_1_Pack_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19091BA6-7155-9448-AFFA-BB3B66B14E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{19091BA6-7155-9448-AFFA-BB3B66B14E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{516D336D-3142-445B-8051-73C8936B1619}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="1420" windowWidth="38000" windowHeight="23200" activeTab="5" xr2:uid="{4B373925-3C75-4A4A-9B86-1F6BD1851756}"/>
+    <workbookView xWindow="7650" yWindow="1125" windowWidth="31395" windowHeight="18960" activeTab="5" xr2:uid="{4B373925-3C75-4A4A-9B86-1F6BD1851756}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Breakdown AE2" sheetId="4" r:id="rId1"/>
@@ -367,86 +367,6 @@
     <t xml:space="preserve">Demonstration shows that the artefact is poor, lacks functionality or does not work, and falls well below what has been delivered on course, attention to industry standards and expectations for a Level 6 student.  </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Presentation - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LO: 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(KSB:CBS1, CBS2, CBS3, CBS5, CBS8)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Demonstration of Product - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LO: 1,2,3,5 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(KSB:  CS1, CS2, CS5, CS6, CS7, CTK1, CTK2, CTK3, CTK5, CTK7, CTK8, CTK9, CTK10, CBS6, CBS8, CBS9, CBS10, CBS11, CBS12, CBS13, CBS14)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Demonstration/presentation of Product - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>LO: 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(KSB: CS3, CS4, CTK4, CTK5, CBS7, CBS14</t>
-    </r>
-  </si>
-  <si>
     <t>Synoptic Project and Presentation</t>
   </si>
   <si>
@@ -454,78 +374,6 @@
   </si>
   <si>
     <t>AE2</t>
-  </si>
-  <si>
-    <r>
-      <t>Presentation, Reporting, Referencing &amp; Citation. Introduction, Background/context, Requirements/Specification -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> LO: 2, 3, &amp; 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(KSB: CS1, CS5, CS6, CTK1, CTK2, CTK5, CTK7, CTK8, CTK10, CBS1, CBS2, CBS3, CBS5, CBS6, CBS9, CBS10, CBS11, CBS12, CBS13, CBS8)  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Project Methodology, Project Management &amp; Professional Practice, Design/Implementation, Testing, Artefact/s &amp; supporting Documentation - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LO: 1 &amp; 6 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(KSB: CS2, CS3, CS4, CS6, CS7, CTK3, CTK4, CTK5, CTK6, CTK9, CTK10, CBS7, CBS14)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Evaluation, conclusions &amp; Recommendations - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LO: 5 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>(KSB: CS2, CS5, CS6, CTK2, CTK9, CBS8)</t>
-    </r>
   </si>
   <si>
     <t>Excellent writing style, presentation and organisation of work and fluent communication in most contexts. Referencing/citation comprehensive. 
@@ -671,6 +519,242 @@
       <t>(20%)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Project management, implementation and evaluation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LO: 1,2,3,5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(KSB:  CS1, CS2, CS5, CS6, CS7, CTK1, CTK2, CTK3, CTK5, CTK7, CTK8, CTK9, CTK10, CBS6, CBS8, CBS9, CBS10, CBS11, CBS12, CBS13, CBS14)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Presentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LO: 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(KSB:CBS1, CBS2, CBS3, CBS5, CBS8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Demonstration/presentation of Product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LO: 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(KSB: CS3, CS4, CTK4, CTK5, CBS7, CBS14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Project Methodology, Project Management &amp; Professional Practice, Design/Implementation, Testing, Artefact/s &amp; supporting Documentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LO: 1 &amp; 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(KSB: CS2, CS3, CS4, CS6, CS7, CTK3, CTK4, CTK5, CTK6, CTK9, CTK10, CBS7, CBS14)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Presentation, Reporting, Referencing &amp; Citation. Introduction, Background/context, Requirements/Specification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LO: 2, 3, &amp; 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(KSB: CS1, CS5, CS6, CTK1, CTK2, CTK5, CTK7, CTK8, CTK10, CBS1, CBS2, CBS3, CBS5, CBS6, CBS9, CBS10, CBS11, CBS12, CBS13, CBS8)  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaluation, conclusions &amp; Recommendations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">LO: 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>(KSB: CS2, CS5, CS6, CTK2, CTK9, CBS8)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -680,7 +764,7 @@
     <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="65">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2297,9 +2381,102 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2315,100 +2492,154 @@
     <xf numFmtId="14" fontId="34" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="42" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="42" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="42" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="42" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="42" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="42" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2531,152 +2762,125 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="42" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="42" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="42" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="42" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="42" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="42" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2698,126 +2902,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3941,39 +4025,39 @@
   </sheetPr>
   <dimension ref="B1:T50"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I15"/>
+    <sheetView topLeftCell="A6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="8" max="8" width="2.875" customWidth="1"/>
     <col min="9" max="9" width="5.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="126" t="s">
+    <row r="1" spans="2:20" ht="18">
+      <c r="B1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
       <c r="K1" s="30"/>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -3981,7 +4065,7 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" ht="18">
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -3997,17 +4081,17 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+    <row r="3" spans="2:20" ht="18">
+      <c r="C3" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
       <c r="K3" s="30"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -4015,19 +4099,19 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="18">
       <c r="C4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="33"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="33"/>
-      <c r="H4" s="118">
+      <c r="H4" s="149">
         <v>45658</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
       <c r="K4" s="34"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -4035,7 +4119,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" ht="18">
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -4051,65 +4135,65 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="16.5">
       <c r="C6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="16.5">
       <c r="C7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120" t="s">
+      <c r="D7" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="119"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="139"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="16.5">
       <c r="C8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="146" t="s">
+      <c r="D8" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="146"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -4117,7 +4201,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="18">
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -4135,7 +4219,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="18.75" thickBot="1">
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -4154,18 +4238,18 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="18.75" thickBot="1">
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="147" t="s">
+      <c r="E11" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148" t="s">
+      <c r="F11" s="141"/>
+      <c r="G11" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
       <c r="J11" s="92"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -4177,24 +4261,24 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="105.75" customHeight="1" thickBot="1">
       <c r="B12" s="89">
         <v>1</v>
       </c>
-      <c r="C12" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="113">
+      <c r="C12" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="124">
         <v>0</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="146"/>
       <c r="J12" s="92"/>
       <c r="K12" s="96"/>
-      <c r="L12" s="127"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="97"/>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
@@ -4204,24 +4288,24 @@
       <c r="S12" s="6"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:20" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="93.75" customHeight="1" thickBot="1">
       <c r="B13" s="89">
         <v>2</v>
       </c>
-      <c r="C13" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131">
+      <c r="C13" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123">
         <v>0</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
       <c r="K13" s="96"/>
-      <c r="L13" s="127"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="99"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -4230,22 +4314,22 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="134">
+    <row r="14" spans="2:20" ht="16.5">
+      <c r="B14" s="127">
         <v>3</v>
       </c>
-      <c r="C14" s="136" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="140">
+      <c r="C14" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="133">
         <v>0</v>
       </c>
-      <c r="H14" s="141"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="126"/>
       <c r="K14" s="96"/>
       <c r="L14" s="100"/>
       <c r="M14" s="99"/>
@@ -4256,17 +4340,17 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:20" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="135"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="143" t="s">
+    <row r="15" spans="2:20" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B15" s="128"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
       <c r="J15" s="98"/>
       <c r="K15" s="96"/>
       <c r="L15" s="100"/>
@@ -4278,7 +4362,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
@@ -4296,7 +4380,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:16">
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="48"/>
@@ -4312,7 +4396,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16">
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="48"/>
@@ -4328,7 +4412,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16">
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -4344,7 +4428,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:16">
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
@@ -4360,7 +4444,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16">
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -4376,7 +4460,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16">
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -4391,7 +4475,7 @@
       <c r="N22" s="39"/>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16">
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -4406,7 +4490,7 @@
       <c r="N23" s="39"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16">
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -4421,7 +4505,7 @@
       <c r="N24" s="39"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16">
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -4436,7 +4520,7 @@
       <c r="N25" s="39"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:16">
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -4451,7 +4535,7 @@
       <c r="N26" s="39"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16">
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -4466,7 +4550,7 @@
       <c r="N27" s="39"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16">
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -4481,7 +4565,7 @@
       <c r="N28" s="39"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:16">
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -4496,7 +4580,7 @@
       <c r="N29" s="39"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16">
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -4511,7 +4595,7 @@
       <c r="N30" s="39"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:16">
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -4526,7 +4610,7 @@
       <c r="N31" s="39"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:16">
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -4541,7 +4625,7 @@
       <c r="N32" s="39"/>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:17">
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
@@ -4556,7 +4640,7 @@
       <c r="N33" s="39"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:17">
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -4571,7 +4655,7 @@
       <c r="N34" s="39"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:17" ht="16.5">
       <c r="C35" s="25"/>
       <c r="D35" s="40"/>
       <c r="E35" s="17"/>
@@ -4586,7 +4670,7 @@
       <c r="N35" s="39"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:17">
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -4601,7 +4685,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:17">
       <c r="K37" s="17"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4610,7 +4694,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:17" ht="16.5">
       <c r="K38" s="17"/>
       <c r="L38" s="22"/>
       <c r="M38" s="23"/>
@@ -4619,7 +4703,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:17" ht="16.5">
       <c r="K39" s="25"/>
       <c r="L39" s="22"/>
       <c r="M39" s="2"/>
@@ -4628,7 +4712,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:17" ht="16.5">
       <c r="K40" s="25"/>
       <c r="L40" s="38"/>
       <c r="M40" s="2"/>
@@ -4637,7 +4721,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:17">
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -4654,15 +4738,15 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
+    <row r="42" spans="3:17">
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
       <c r="K42" s="17"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -4671,11 +4755,11 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C43" s="122"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="124"/>
+    <row r="43" spans="3:17">
+      <c r="C43" s="114"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
@@ -4688,15 +4772,15 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+    <row r="44" spans="3:17">
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
       <c r="K44" s="17"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -4705,15 +4789,15 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+    <row r="45" spans="3:17">
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
       <c r="K45" s="17"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4722,7 +4806,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:17">
       <c r="K46" s="17"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -4731,20 +4815,28 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:17">
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:17">
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11">
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11">
       <c r="K50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="C44:J45"/>
@@ -4761,14 +4853,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:I15" xr:uid="{1C3B6436-8B30-4E63-9C8D-C553CF48F585}">
@@ -4790,46 +4874,46 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
     <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
+    <col min="15" max="15" width="7.125" customWidth="1"/>
+    <col min="16" max="16" width="7.625" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.625" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:22">
       <c r="C2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="151" t="str">
+      <c r="F2" s="200" t="str">
         <f>('Feedback Breakdown AE2'!C3)</f>
         <v>School of Technology and Maritime Industries - Computing</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
       <c r="L2" s="56"/>
       <c r="M2" s="51" t="str">
         <f>'Feedback Breakdown AE2'!J7</f>
@@ -4841,7 +4925,7 @@
       </c>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22">
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4857,35 +4941,35 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C4" s="152" t="str">
+    <row r="4" spans="2:22">
+      <c r="C4" s="201" t="str">
         <f>'Feedback Breakdown AE2'!C6</f>
         <v>Student Name/Group:</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="154">
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="203">
         <f>'Feedback Breakdown AE2'!D6</f>
         <v>0</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
       <c r="L4" s="57"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="155">
+      <c r="R4" s="204">
         <f>'Feedback Breakdown AE2'!H4</f>
         <v>45658</v>
       </c>
-      <c r="S4" s="155"/>
+      <c r="S4" s="204"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="16.5" thickBot="1">
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -4901,42 +4985,42 @@
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+    <row r="6" spans="2:22" ht="16.5" thickBot="1">
+      <c r="B6" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="162" t="s">
+      <c r="C6" s="206"/>
+      <c r="D6" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165" t="s">
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="168" t="s">
+      <c r="I6" s="215"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="169"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="171" t="s">
+      <c r="L6" s="218"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="173" t="s">
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="175"/>
-    </row>
-    <row r="7" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="224"/>
+    </row>
+    <row r="7" spans="2:22" ht="16.5" thickBot="1">
+      <c r="B7" s="207"/>
+      <c r="C7" s="208"/>
       <c r="D7" s="66">
         <v>100</v>
       </c>
@@ -4949,31 +5033,31 @@
       <c r="G7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="176" t="s">
+      <c r="H7" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="179" t="s">
+      <c r="I7" s="226"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="182" t="s">
+      <c r="L7" s="229"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="184" t="s">
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="186"/>
-    </row>
-    <row r="8" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
+      <c r="R7" s="234"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="235"/>
+    </row>
+    <row r="8" spans="2:22" ht="16.5" thickBot="1">
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
       <c r="D8" s="64">
         <v>10</v>
       </c>
@@ -4986,35 +5070,35 @@
       <c r="G8" s="63">
         <v>7</v>
       </c>
-      <c r="H8" s="187">
+      <c r="H8" s="236">
         <v>6</v>
       </c>
-      <c r="I8" s="188"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="171">
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="220">
         <v>5</v>
       </c>
-      <c r="L8" s="172"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="191">
+      <c r="L8" s="221"/>
+      <c r="M8" s="239"/>
+      <c r="N8" s="182">
         <v>4</v>
       </c>
-      <c r="O8" s="192"/>
-      <c r="P8" s="193"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
       <c r="Q8" s="65">
         <v>3</v>
       </c>
-      <c r="R8" s="194">
+      <c r="R8" s="185">
         <v>2</v>
       </c>
-      <c r="S8" s="195"/>
-      <c r="T8" s="196">
+      <c r="S8" s="186"/>
+      <c r="T8" s="187">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
+    <row r="9" spans="2:22" ht="16.5" thickBot="1">
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="75">
         <v>100</v>
       </c>
@@ -5063,11 +5147,11 @@
       <c r="S9" s="70">
         <v>15</v>
       </c>
-      <c r="T9" s="197"/>
-    </row>
-    <row r="10" spans="2:22" ht="37" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
+      <c r="T9" s="188"/>
+    </row>
+    <row r="10" spans="2:22" ht="34.5" thickBot="1">
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
       <c r="D10" s="78" t="s">
         <v>23</v>
       </c>
@@ -5080,70 +5164,70 @@
       <c r="G10" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="198" t="s">
+      <c r="H10" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201" t="s">
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="202"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="204" t="s">
+      <c r="L10" s="193"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="205"/>
-      <c r="P10" s="206"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="197"/>
       <c r="Q10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="207" t="s">
+      <c r="R10" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="208"/>
+      <c r="S10" s="199"/>
       <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="131" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="209">
+    <row r="11" spans="2:22" ht="150.75" thickBot="1">
+      <c r="B11" s="159">
         <v>1</v>
       </c>
       <c r="C11" s="83" t="str">
         <f>'Feedback Breakdown AE2'!C12</f>
         <v xml:space="preserve">Presentation, Reporting, Referencing &amp; Citation. Introduction, Background/context, Requirements/Specification - LO: 2, 3, &amp; 4 (KSB: CS1, CS5, CS6, CTK1, CTK2, CTK5, CTK7, CTK8, CTK10, CBS1, CBS2, CBS3, CBS5, CBS6, CBS9, CBS10, CBS11, CBS12, CBS13, CBS8)  </v>
       </c>
-      <c r="D11" s="211" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="214" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="215"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="214" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="215"/>
-      <c r="M11" s="216"/>
-      <c r="N11" s="217" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" s="218"/>
-      <c r="P11" s="219"/>
-      <c r="Q11" s="220" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="221"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="222"/>
-    </row>
-    <row r="12" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="210"/>
+      <c r="D11" s="176" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="165"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="164" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="165"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="180"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="170" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="172"/>
+    </row>
+    <row r="12" spans="2:22" ht="18" thickBot="1">
+      <c r="B12" s="160"/>
       <c r="C12" s="84"/>
       <c r="D12" s="47">
         <f>IF('Feedback Breakdown AE2'!G12=10,"X",0)</f>
@@ -5161,77 +5245,77 @@
         <f>IF('Feedback Breakdown AE2'!G12=7,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="223">
+      <c r="H12" s="173">
         <f>IF('Feedback Breakdown AE2'!G12=6,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="224"/>
-      <c r="J12" s="225"/>
-      <c r="K12" s="223">
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="173">
         <f>IF('Feedback Breakdown AE2'!G12=5,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="224"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="223">
+      <c r="L12" s="174"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="173">
         <f>IF('Feedback Breakdown AE2'!G12=4,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="224"/>
-      <c r="P12" s="224"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
       <c r="Q12" s="49">
         <f>IF('Feedback Breakdown AE2'!G12=3,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="226">
+      <c r="R12" s="152">
         <f>IF('Feedback Breakdown AE2'!G12=2,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="227"/>
+      <c r="S12" s="154"/>
       <c r="T12" s="46" t="str">
         <f>IF('Feedback Breakdown AE2'!G12=0,"X",0)</f>
         <v>X</v>
       </c>
       <c r="U12" s="72"/>
     </row>
-    <row r="13" spans="2:22" ht="118" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="209">
+    <row r="13" spans="2:22" ht="120.75" thickBot="1">
+      <c r="B13" s="159">
         <v>2</v>
       </c>
       <c r="C13" s="85" t="str">
         <f>'Feedback Breakdown AE2'!C13</f>
         <v>Project Methodology, Project Management &amp; Professional Practice, Design/Implementation, Testing, Artefact/s &amp; supporting Documentation - LO: 1 &amp; 6 (KSB: CS2, CS3, CS4, CS6, CS7, CTK3, CTK4, CTK5, CTK6, CTK9, CTK10, CBS7, CBS14)</v>
       </c>
-      <c r="D13" s="231" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="214" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="215"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="214" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="215"/>
-      <c r="M13" s="216"/>
-      <c r="N13" s="234" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13" s="235"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="228" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="229"/>
-      <c r="S13" s="229"/>
-      <c r="T13" s="230"/>
-    </row>
-    <row r="14" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="210"/>
+      <c r="D13" s="161" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="164" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="165"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="168"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="157"/>
+    </row>
+    <row r="14" spans="2:22" ht="16.5" thickBot="1">
+      <c r="B14" s="160"/>
       <c r="C14" s="86"/>
       <c r="D14" s="47">
         <f>IF('Feedback Breakdown AE2'!G13=10,"X",0)</f>
@@ -5249,77 +5333,77 @@
         <f>IF('Feedback Breakdown AE2'!G13=7,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="152">
         <f>IF('Feedback Breakdown AE2'!G13=6,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="238"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="226">
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="152">
         <f>IF('Feedback Breakdown AE2'!G13=5,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="238"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="226">
+      <c r="L14" s="153"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="152">
         <f>IF('Feedback Breakdown AE2'!G13=4,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="238"/>
-      <c r="P14" s="227"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="Q14" s="49">
         <f>IF('Feedback Breakdown AE2'!G13=3,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="226">
+      <c r="R14" s="152">
         <f>IF('Feedback Breakdown AE2'!G13=2,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="227"/>
+      <c r="S14" s="154"/>
       <c r="T14" s="46" t="str">
         <f>IF('Feedback Breakdown AE2'!G13=0,"X",0)</f>
         <v>X</v>
       </c>
       <c r="U14" s="72"/>
     </row>
-    <row r="15" spans="2:22" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="209">
+    <row r="15" spans="2:22" ht="84.75" customHeight="1" thickBot="1">
+      <c r="B15" s="159">
         <v>3</v>
       </c>
       <c r="C15" s="85" t="str">
         <f>'Feedback Breakdown AE2'!C14</f>
         <v>Evaluation, conclusions &amp; Recommendations - LO: 5 (KSB: CS2, CS5, CS6, CTK2, CTK9, CBS8)</v>
       </c>
-      <c r="D15" s="231" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="214" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="215"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="214" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="215"/>
-      <c r="M15" s="216"/>
-      <c r="N15" s="214" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="215"/>
-      <c r="P15" s="216"/>
-      <c r="Q15" s="228" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" s="229"/>
-      <c r="S15" s="229"/>
-      <c r="T15" s="230"/>
-    </row>
-    <row r="16" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="210"/>
+      <c r="D15" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="165"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="165"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="155" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="157"/>
+    </row>
+    <row r="16" spans="2:22" ht="16.5" thickBot="1">
+      <c r="B16" s="160"/>
       <c r="C16" s="86"/>
       <c r="D16" s="46">
         <f>IF('Feedback Breakdown AE2'!G14=10,"X",0)</f>
@@ -5337,88 +5421,88 @@
         <f>IF('Feedback Breakdown AE2'!G14=7,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="226">
+      <c r="H16" s="152">
         <f>IF('Feedback Breakdown AE2'!G14=6,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="238"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="226">
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="152">
         <f>IF('Feedback Breakdown AE2'!G14=5,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="238"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="226">
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152">
         <f>IF('Feedback Breakdown AE2'!G14=4,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="238"/>
-      <c r="P16" s="227"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="154"/>
       <c r="Q16" s="46">
         <f>IF('Feedback Breakdown AE2'!G14=3,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="226">
+      <c r="R16" s="152">
         <f>IF('Feedback Breakdown AE2'!G14=2,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="227"/>
+      <c r="S16" s="154"/>
       <c r="T16" s="46" t="str">
         <f>IF('Feedback Breakdown AE2'!G14=0,"X",0)</f>
         <v>X</v>
       </c>
       <c r="U16" s="72"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
+    <row r="17" spans="3:16" ht="16.5">
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="237"/>
-      <c r="N19" s="237"/>
+    <row r="19" spans="3:16">
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="237"/>
-      <c r="H20" s="237"/>
-      <c r="I20" s="237"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="237"/>
+    <row r="20" spans="3:16">
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16">
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -5434,7 +5518,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16">
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -5452,45 +5536,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C19:N20"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:K4"/>
@@ -5507,6 +5552,45 @@
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="C19:N20"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C17:N17"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:H12 K12 N12 D14:H14 K14 N14 D16:H16 K16 N16">
     <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="X">
@@ -5558,36 +5642,36 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="56.1640625" customWidth="1"/>
+    <col min="11" max="11" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="242" t="s">
+    <row r="1" spans="2:11" ht="16.5">
+      <c r="B1" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
       <c r="I1" s="102"/>
       <c r="J1" s="102"/>
       <c r="K1" s="102"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="18">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -5599,22 +5683,22 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="242" t="str">
+    <row r="3" spans="2:11" ht="16.5">
+      <c r="B3" s="282" t="str">
         <f>'Feedback Breakdown AE2'!C3</f>
         <v>School of Technology and Maritime Industries - Computing</v>
       </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
       <c r="I3" s="102"/>
       <c r="J3" s="102"/>
       <c r="K3" s="102"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="18">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5626,28 +5710,28 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="243" t="str">
+    <row r="5" spans="2:11" ht="16.5">
+      <c r="B5" s="283" t="str">
         <f>'Feedback Breakdown AE2'!C6</f>
         <v>Student Name/Group:</v>
       </c>
-      <c r="C5" s="243"/>
+      <c r="C5" s="283"/>
       <c r="D5" s="27">
         <f>'Feedback Breakdown AE2'!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="244">
+      <c r="E5" s="284">
         <f>'Feedback Breakdown AE2'!H4</f>
         <v>45658</v>
       </c>
-      <c r="F5" s="245"/>
+      <c r="F5" s="285"/>
       <c r="G5" s="44"/>
       <c r="H5" s="10"/>
       <c r="I5" s="103"/>
       <c r="J5" s="107"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="16.5">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -5659,15 +5743,15 @@
       <c r="J6" s="107"/>
       <c r="K6" s="107"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="18">
       <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="246" t="str">
+      <c r="C7" s="286" t="str">
         <f>'Feedback Breakdown AE2'!D7</f>
         <v>Synoptic Project and Presentation</v>
       </c>
-      <c r="D7" s="246"/>
+      <c r="D7" s="286"/>
       <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
@@ -5685,7 +5769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="16.5">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -5697,11 +5781,11 @@
       <c r="J8" s="108"/>
       <c r="K8" s="109"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="240" t="s">
+    <row r="9" spans="2:11" ht="16.5">
+      <c r="B9" s="280" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="241"/>
+      <c r="C9" s="281"/>
       <c r="D9" s="15" t="str">
         <f>'Feedback Breakdown AE2'!D8</f>
         <v>Synoptic Project Report (70%)</v>
@@ -5723,7 +5807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="18">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -5739,16 +5823,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="33.75" thickBot="1">
       <c r="B11" s="7"/>
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="247" t="s">
+      <c r="E11" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="248"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="55" t="s">
         <v>40</v>
       </c>
@@ -5761,21 +5845,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="63" customHeight="1">
       <c r="B12" s="7"/>
-      <c r="C12" s="249">
+      <c r="C12" s="257">
         <v>1</v>
       </c>
-      <c r="D12" s="250" t="str">
+      <c r="D12" s="258" t="str">
         <f>'Rubric AE2'!C11</f>
         <v xml:space="preserve">Presentation, Reporting, Referencing &amp; Citation. Introduction, Background/context, Requirements/Specification - LO: 2, 3, &amp; 4 (KSB: CS1, CS5, CS6, CTK1, CTK2, CTK5, CTK7, CTK8, CTK10, CBS1, CBS2, CBS3, CBS5, CBS6, CBS9, CBS10, CBS11, CBS12, CBS13, CBS8)  </v>
       </c>
-      <c r="E12" s="252">
+      <c r="E12" s="260">
         <f>'Feedback Breakdown AE2'!G12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="253"/>
-      <c r="G12" s="256">
+      <c r="F12" s="261"/>
+      <c r="G12" s="264">
         <v>0</v>
       </c>
       <c r="H12" s="104"/>
@@ -5787,13 +5871,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="18.75">
       <c r="B13" s="7"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="264"/>
       <c r="H13" s="105"/>
       <c r="I13" s="80"/>
       <c r="J13" s="108" t="s">
@@ -5803,24 +5887,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="69.75" customHeight="1">
       <c r="B14" s="7"/>
-      <c r="C14" s="279">
+      <c r="C14" s="270">
         <v>2</v>
       </c>
-      <c r="D14" s="280" t="str">
+      <c r="D14" s="271" t="str">
         <f>'Rubric AE2'!C13</f>
         <v>Project Methodology, Project Management &amp; Professional Practice, Design/Implementation, Testing, Artefact/s &amp; supporting Documentation - LO: 1 &amp; 6 (KSB: CS2, CS3, CS4, CS6, CS7, CTK3, CTK4, CTK5, CTK6, CTK9, CTK10, CBS7, CBS14)</v>
       </c>
-      <c r="E14" s="282">
+      <c r="E14" s="273">
         <f>'Feedback Breakdown AE2'!G13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="283"/>
-      <c r="G14" s="286">
+      <c r="F14" s="274"/>
+      <c r="G14" s="277">
         <v>0</v>
       </c>
-      <c r="H14" s="273" t="s">
+      <c r="H14" s="256" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="80"/>
@@ -5831,14 +5915,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="18">
       <c r="B15" s="7"/>
-      <c r="C15" s="279"/>
-      <c r="D15" s="281"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="273"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="256"/>
       <c r="I15" s="80"/>
       <c r="J15" s="108">
         <v>35</v>
@@ -5847,24 +5931,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="30" customHeight="1">
       <c r="B16" s="7"/>
-      <c r="C16" s="249">
+      <c r="C16" s="257">
         <v>3</v>
       </c>
-      <c r="D16" s="250" t="str">
+      <c r="D16" s="258" t="str">
         <f>'Rubric AE2'!C15</f>
         <v>Evaluation, conclusions &amp; Recommendations - LO: 5 (KSB: CS2, CS5, CS6, CTK2, CTK9, CBS8)</v>
       </c>
-      <c r="E16" s="252">
+      <c r="E16" s="260">
         <f>'Feedback Breakdown AE2'!G14</f>
         <v>0</v>
       </c>
-      <c r="F16" s="253"/>
-      <c r="G16" s="256">
+      <c r="F16" s="261"/>
+      <c r="G16" s="264">
         <v>0</v>
       </c>
-      <c r="H16" s="273"/>
+      <c r="H16" s="256"/>
       <c r="I16" s="80"/>
       <c r="J16" s="108" t="s">
         <v>45</v>
@@ -5873,13 +5957,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="19.5" thickBot="1">
       <c r="B17" s="7"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="256"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="264"/>
       <c r="H17" s="106"/>
       <c r="I17" s="80"/>
       <c r="J17" s="112">
@@ -5889,18 +5973,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="52.5" customHeight="1" thickBot="1">
       <c r="B18" s="7"/>
-      <c r="C18" s="274" t="s">
+      <c r="C18" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="275"/>
-      <c r="E18" s="276" t="str">
+      <c r="D18" s="266"/>
+      <c r="E18" s="267" t="str">
         <f>IF(H18&gt;=98,"100",IF(H18&gt;=90,"92",IF(H18&gt;=80,"83",IF(H18&gt;=70,"74",IF(H18&gt;=67,"68",IF(H18&gt;=64,"65",IF(H18&gt;=60,"62",IF(H18&gt;=57,"58",IF(H18&gt;=54,"55",IF(H18&gt;=50,"52",IF(H18&gt;=47,"48",IF(H18&gt;=44,"45",IF(H18&gt;=40,"42",IF(H18&gt;=34,"35",IF(H18&gt;=19,"20",IF(H18&gt;=14,"15",IF(H18&gt;=0,"0","")))))))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="277"/>
-      <c r="G18" s="278"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="269"/>
       <c r="H18" s="90">
         <f>AVERAGE(G12:G17)</f>
         <v>0</v>
@@ -5909,22 +5993,22 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="B19" s="7"/>
-      <c r="C19" s="257" t="str">
+      <c r="C19" s="240" t="str">
         <f>IF(E18="0",K17,IF(E18="15",K16,IF(E18="20",K16,IF(E18="35",K15,IF(E18="42",K14,IF(E18="45",K14,IF(E18="48",K14,IF(E18="52",K13,IF(E18="55",K13,IF(E18="58",K13,IF(E18="62",K12,IF(E18="65",K12,IF(E18="68",K12,IF(E18="74",K11,IF(E18="83",K10,IF(E18="92",K9,IF(E18&gt;="100",K7,)))))))))))))))))</f>
         <v>No attempt, No submission, Absent</v>
       </c>
-      <c r="D19" s="258"/>
-      <c r="E19" s="258"/>
-      <c r="F19" s="258"/>
-      <c r="G19" s="259"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="242"/>
       <c r="H19" s="17"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="18.75" thickBot="1">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -5936,21 +6020,21 @@
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
     </row>
-    <row r="21" spans="2:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="51.75" customHeight="1" thickBot="1">
       <c r="B21" s="7"/>
-      <c r="C21" s="260" t="s">
+      <c r="C21" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="262"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="245"/>
       <c r="H21" s="16"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" ht="18">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5962,90 +6046,90 @@
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="18.75" thickBot="1">
       <c r="B23" s="7"/>
-      <c r="C23" s="263" t="s">
+      <c r="C23" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="263"/>
-      <c r="E23" s="263"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="18">
       <c r="B24" s="7"/>
-      <c r="C24" s="264"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="265"/>
-      <c r="H24" s="266"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="249"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="16"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="268"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="268"/>
-      <c r="G25" s="268"/>
-      <c r="H25" s="269"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="252"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="16"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="268"/>
-      <c r="F26" s="268"/>
-      <c r="G26" s="268"/>
-      <c r="H26" s="269"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="252"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="267"/>
-      <c r="D27" s="268"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="268"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="269"/>
+    <row r="27" spans="2:11">
+      <c r="C27" s="250"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="252"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="267"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="269"/>
+    <row r="28" spans="2:11">
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="252"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="270"/>
-      <c r="D29" s="271"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="271"/>
-      <c r="G29" s="271"/>
-      <c r="H29" s="272"/>
+    <row r="29" spans="2:11" ht="183" customHeight="1" thickBot="1">
+      <c r="C29" s="253"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="255"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -6056,31 +6140,42 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:11">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:11">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:11">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C23:H23"/>
@@ -6096,17 +6191,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G17" xr:uid="{196B6F35-CA86-4834-B1DF-48D715C33048}">
@@ -6128,37 +6212,37 @@
   <dimension ref="B1:T50"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C12" sqref="C12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="3.375" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="8" max="8" width="2.875" customWidth="1"/>
     <col min="9" max="9" width="5.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C1" s="116" t="s">
+    <row r="1" spans="2:20" ht="18">
+      <c r="C1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
       <c r="K1" s="30"/>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -6166,7 +6250,7 @@
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="2:20" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" ht="8.1" customHeight="1">
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -6182,17 +6266,17 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+    <row r="3" spans="2:20" ht="18">
+      <c r="C3" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
       <c r="K3" s="30"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -6200,19 +6284,19 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="18">
       <c r="C4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="33"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="33"/>
-      <c r="H4" s="118">
+      <c r="H4" s="149">
         <v>45658</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
       <c r="K4" s="34"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
@@ -6220,7 +6304,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="2:20" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" ht="6" customHeight="1">
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -6236,63 +6320,63 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="15.95" customHeight="1">
       <c r="C6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="16.5">
       <c r="C7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120" t="s">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="119"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="139"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="16.5">
       <c r="C8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="146" t="s">
+      <c r="D8" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="146"/>
+      <c r="J8" s="140"/>
       <c r="K8" s="36" t="s">
         <v>52</v>
       </c>
@@ -6302,7 +6386,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="2:20" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="11.1" customHeight="1">
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -6320,7 +6404,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -6339,18 +6423,18 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="23.1" customHeight="1" thickBot="1">
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
-      <c r="E11" s="147" t="s">
+      <c r="E11" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148" t="s">
+      <c r="F11" s="141"/>
+      <c r="G11" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
       <c r="J11" s="92"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -6362,24 +6446,24 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="58.5" customHeight="1" thickBot="1">
       <c r="B12" s="89">
         <v>1</v>
       </c>
-      <c r="C12" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="113">
+      <c r="C12" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="124">
         <v>0</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="146"/>
       <c r="J12" s="92"/>
       <c r="K12" s="96"/>
-      <c r="L12" s="127"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="97"/>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
@@ -6389,24 +6473,24 @@
       <c r="S12" s="6"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="87" customHeight="1" thickBot="1">
       <c r="B13" s="89">
         <v>2</v>
       </c>
-      <c r="C13" s="128" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131">
+      <c r="C13" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123">
         <v>0</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
       <c r="K13" s="96"/>
-      <c r="L13" s="127"/>
+      <c r="L13" s="119"/>
       <c r="M13" s="99"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -6415,22 +6499,22 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="134">
+    <row r="14" spans="2:20" ht="55.5" customHeight="1">
+      <c r="B14" s="127">
         <v>3</v>
       </c>
-      <c r="C14" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="140">
+      <c r="C14" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="133">
         <v>0</v>
       </c>
-      <c r="H14" s="141"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="126"/>
       <c r="K14" s="96"/>
       <c r="L14" s="100"/>
       <c r="M14" s="99"/>
@@ -6441,17 +6525,17 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="135"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="143" t="s">
+    <row r="15" spans="2:20" ht="21" customHeight="1" thickBot="1">
+      <c r="B15" s="128"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
       <c r="J15" s="98"/>
       <c r="K15" s="96"/>
       <c r="L15" s="100"/>
@@ -6463,7 +6547,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:20" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="26.1" customHeight="1">
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
@@ -6481,7 +6565,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="3:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:16" ht="12" customHeight="1">
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="48"/>
@@ -6497,7 +6581,7 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="3:16" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" ht="0.95" customHeight="1">
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="48"/>
@@ -6513,7 +6597,7 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" ht="15" customHeight="1">
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -6529,7 +6613,7 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:16" ht="15" customHeight="1">
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
@@ -6545,7 +6629,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" ht="15" customHeight="1">
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -6561,7 +6645,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="3:16" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" ht="42.95" customHeight="1">
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -6576,7 +6660,7 @@
       <c r="N22" s="39"/>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="3:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" ht="18.95" customHeight="1">
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -6591,7 +6675,7 @@
       <c r="N23" s="39"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="3:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" ht="32.1" customHeight="1">
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -6606,7 +6690,7 @@
       <c r="N24" s="39"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="3:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -6621,7 +6705,7 @@
       <c r="N25" s="39"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="3:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:16" ht="32.1" customHeight="1">
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -6636,7 +6720,7 @@
       <c r="N26" s="39"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="3:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" ht="33" customHeight="1">
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -6651,7 +6735,7 @@
       <c r="N27" s="39"/>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="3:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" ht="17.100000000000001" customHeight="1">
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -6666,7 +6750,7 @@
       <c r="N28" s="39"/>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:16" ht="21" customHeight="1">
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -6681,7 +6765,7 @@
       <c r="N29" s="39"/>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" ht="30" customHeight="1">
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -6696,7 +6780,7 @@
       <c r="N30" s="39"/>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="3:16" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:16" ht="6.95" customHeight="1">
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -6711,7 +6795,7 @@
       <c r="N31" s="39"/>
       <c r="O31" s="16"/>
     </row>
-    <row r="32" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:16" ht="18" customHeight="1">
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -6726,7 +6810,7 @@
       <c r="N32" s="39"/>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:17" ht="27.95" customHeight="1">
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
@@ -6741,7 +6825,7 @@
       <c r="N33" s="39"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:17" ht="24" customHeight="1">
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -6756,7 +6840,7 @@
       <c r="N34" s="39"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="3:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:17" ht="30.95" customHeight="1">
       <c r="C35" s="25"/>
       <c r="D35" s="40"/>
       <c r="E35" s="17"/>
@@ -6771,7 +6855,7 @@
       <c r="N35" s="39"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:17" ht="18" customHeight="1">
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -6786,7 +6870,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="3:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:17" ht="18" customHeight="1">
       <c r="K37" s="17"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -6795,7 +6879,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="3:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:17" ht="21.95" customHeight="1">
       <c r="K38" s="17"/>
       <c r="L38" s="22"/>
       <c r="M38" s="23"/>
@@ -6804,7 +6888,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="3:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:17" ht="18.95" customHeight="1">
       <c r="K39" s="25"/>
       <c r="L39" s="22"/>
       <c r="M39" s="2"/>
@@ -6813,7 +6897,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="3:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:17" ht="21.95" customHeight="1">
       <c r="K40" s="25"/>
       <c r="L40" s="38"/>
       <c r="M40" s="2"/>
@@ -6822,7 +6906,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="3:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:17" ht="17.100000000000001" customHeight="1">
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -6839,15 +6923,15 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="3:17" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
+    <row r="42" spans="3:17" ht="47.1" customHeight="1">
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
       <c r="K42" s="17"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -6856,11 +6940,11 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="3:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="122"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="124"/>
+    <row r="43" spans="3:17" ht="41.1" customHeight="1">
+      <c r="C43" s="114"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
@@ -6873,15 +6957,15 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
+    <row r="44" spans="3:17">
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
       <c r="K44" s="17"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -6890,15 +6974,15 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="3:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+    <row r="45" spans="3:17" ht="60" customHeight="1">
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
       <c r="K45" s="17"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -6907,7 +6991,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:17">
       <c r="K46" s="17"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -6916,21 +7000,29 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:17">
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="3:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:17" ht="36.950000000000003" customHeight="1">
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="11:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" ht="17.100000000000001" customHeight="1">
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11">
       <c r="K50" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="24">
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="C14:F15"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="L12:L13"/>
@@ -6947,14 +7039,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D6:K6"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I15"/>
-    <mergeCell ref="C14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -6979,46 +7063,46 @@
       <selection activeCell="Q11" sqref="Q11:T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
     <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" customWidth="1"/>
-    <col min="16" max="16" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.375" customWidth="1"/>
+    <col min="15" max="15" width="7.125" customWidth="1"/>
+    <col min="16" max="16" width="7.625" customWidth="1"/>
     <col min="17" max="17" width="12.5" customWidth="1"/>
     <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.625" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:22" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:22" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:22" ht="14.1" customHeight="1">
       <c r="C2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
-      <c r="F2" s="151" t="str">
+      <c r="F2" s="200" t="str">
         <f>('Feedback Breakdown AE3'!C3)</f>
         <v>School of Technology and Maritime Industries  - Computing</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
       <c r="L2" s="56"/>
       <c r="M2" s="51" t="str">
         <f>'Feedback Breakdown AE3'!J7</f>
@@ -7030,7 +7114,7 @@
       </c>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -7046,35 +7130,35 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="2:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="152" t="str">
+    <row r="4" spans="2:22" ht="12.95" customHeight="1">
+      <c r="C4" s="201" t="str">
         <f>('Feedback Breakdown AE3'!C6)</f>
         <v>Student Name/Group:</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="154">
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="203">
         <f>'Feedback Breakdown AE3'!D6</f>
         <v>0</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
       <c r="L4" s="57"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="155">
+      <c r="R4" s="204">
         <f>'Feedback Breakdown AE3'!H4</f>
         <v>45658</v>
       </c>
-      <c r="S4" s="155"/>
+      <c r="S4" s="204"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="2:22" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="6.95" customHeight="1" thickBot="1">
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -7090,42 +7174,42 @@
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="156" t="s">
+    <row r="6" spans="2:22" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="162" t="s">
+      <c r="C6" s="206"/>
+      <c r="D6" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165" t="s">
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="168" t="s">
+      <c r="I6" s="215"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="169"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="171" t="s">
+      <c r="L6" s="218"/>
+      <c r="M6" s="219"/>
+      <c r="N6" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="173" t="s">
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="175"/>
-    </row>
-    <row r="7" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="224"/>
+    </row>
+    <row r="7" spans="2:22" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="207"/>
+      <c r="C7" s="208"/>
       <c r="D7" s="66">
         <v>100</v>
       </c>
@@ -7138,31 +7222,31 @@
       <c r="G7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="176" t="s">
+      <c r="H7" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="179" t="s">
+      <c r="I7" s="226"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="182" t="s">
+      <c r="L7" s="229"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="184" t="s">
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="186"/>
-    </row>
-    <row r="8" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
+      <c r="R7" s="234"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="235"/>
+    </row>
+    <row r="8" spans="2:22" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
       <c r="D8" s="64">
         <v>10</v>
       </c>
@@ -7175,35 +7259,35 @@
       <c r="G8" s="63">
         <v>7</v>
       </c>
-      <c r="H8" s="187">
+      <c r="H8" s="236">
         <v>6</v>
       </c>
-      <c r="I8" s="188"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="171">
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="220">
         <v>5</v>
       </c>
-      <c r="L8" s="172"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="191">
+      <c r="L8" s="221"/>
+      <c r="M8" s="239"/>
+      <c r="N8" s="182">
         <v>4</v>
       </c>
-      <c r="O8" s="192"/>
-      <c r="P8" s="193"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
       <c r="Q8" s="65">
         <v>3</v>
       </c>
-      <c r="R8" s="194">
+      <c r="R8" s="185">
         <v>2</v>
       </c>
-      <c r="S8" s="195"/>
-      <c r="T8" s="196">
+      <c r="S8" s="186"/>
+      <c r="T8" s="187">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
+    <row r="9" spans="2:22" ht="15" customHeight="1" thickBot="1">
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="75">
         <v>100</v>
       </c>
@@ -7252,11 +7336,11 @@
       <c r="S9" s="70">
         <v>15</v>
       </c>
-      <c r="T9" s="197"/>
-    </row>
-    <row r="10" spans="2:22" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
+      <c r="T9" s="188"/>
+    </row>
+    <row r="10" spans="2:22" ht="51" customHeight="1" thickBot="1">
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
       <c r="D10" s="78" t="s">
         <v>23</v>
       </c>
@@ -7269,70 +7353,70 @@
       <c r="G10" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="198" t="s">
+      <c r="H10" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201" t="s">
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="202"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="204" t="s">
+      <c r="L10" s="193"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="205"/>
-      <c r="P10" s="206"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="197"/>
       <c r="Q10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="207" t="s">
+      <c r="R10" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="208"/>
+      <c r="S10" s="199"/>
       <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="209">
+    <row r="11" spans="2:22" ht="99" customHeight="1" thickBot="1">
+      <c r="B11" s="159">
         <v>1</v>
       </c>
       <c r="C11" s="83" t="str">
         <f>'Feedback Breakdown AE3'!C12</f>
         <v>Presentation - LO: 4 (KSB:CBS1, CBS2, CBS3, CBS5, CBS8)</v>
       </c>
-      <c r="D11" s="211" t="s">
+      <c r="D11" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="212"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="214" t="s">
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="215"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="214" t="s">
+      <c r="I11" s="165"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="215"/>
-      <c r="M11" s="216"/>
-      <c r="N11" s="217" t="s">
+      <c r="L11" s="165"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="218"/>
-      <c r="P11" s="219"/>
-      <c r="Q11" s="220" t="s">
+      <c r="O11" s="180"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="221"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="222"/>
-    </row>
-    <row r="12" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="210"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="171"/>
+      <c r="T11" s="172"/>
+    </row>
+    <row r="12" spans="2:22" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B12" s="160"/>
       <c r="C12" s="84"/>
       <c r="D12" s="47">
         <f>IF('Feedback Breakdown AE3'!G12=10,"X",0)</f>
@@ -7350,77 +7434,77 @@
         <f>IF('Feedback Breakdown AE3'!G12=7,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="223">
+      <c r="H12" s="173">
         <f>IF('Feedback Breakdown AE3'!G12=6,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="224"/>
-      <c r="J12" s="225"/>
-      <c r="K12" s="223">
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="173">
         <f>IF('Feedback Breakdown AE3'!G12=5,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="224"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="223">
+      <c r="L12" s="174"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="173">
         <f>IF('Feedback Breakdown AE3'!G12=4,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="224"/>
-      <c r="P12" s="224"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
       <c r="Q12" s="49">
         <f>IF('Feedback Breakdown AE3'!G12=3,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="226">
+      <c r="R12" s="152">
         <f>IF('Feedback Breakdown AE3'!G12=2,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="227"/>
+      <c r="S12" s="154"/>
       <c r="T12" s="46" t="str">
         <f>IF('Feedback Breakdown AE3'!G12=0,"X",0)</f>
         <v>X</v>
       </c>
       <c r="U12" s="72"/>
     </row>
-    <row r="13" spans="2:22" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="209">
+    <row r="13" spans="2:22" ht="138.94999999999999" customHeight="1" thickBot="1">
+      <c r="B13" s="159">
         <v>2</v>
       </c>
       <c r="C13" s="85" t="str">
         <f>'Feedback Breakdown AE3'!C13</f>
-        <v>Demonstration of Product - LO: 1,2,3,5 (KSB:  CS1, CS2, CS5, CS6, CS7, CTK1, CTK2, CTK3, CTK5, CTK7, CTK8, CTK9, CTK10, CBS6, CBS8, CBS9, CBS10, CBS11, CBS12, CBS13, CBS14)</v>
-      </c>
-      <c r="D13" s="231" t="s">
+        <v>Project management, implementation and evaluation - LO: 1,2,3,5 (KSB:  CS1, CS2, CS5, CS6, CS7, CTK1, CTK2, CTK3, CTK5, CTK7, CTK8, CTK9, CTK10, CBS6, CBS8, CBS9, CBS10, CBS11, CBS12, CBS13, CBS14)</v>
+      </c>
+      <c r="D13" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="214" t="s">
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="215"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="214" t="s">
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="215"/>
-      <c r="M13" s="216"/>
-      <c r="N13" s="234" t="s">
+      <c r="L13" s="165"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="235"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="228" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="R13" s="229"/>
-      <c r="S13" s="229"/>
-      <c r="T13" s="230"/>
-    </row>
-    <row r="14" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="210"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="157"/>
+    </row>
+    <row r="14" spans="2:22" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B14" s="160"/>
       <c r="C14" s="86"/>
       <c r="D14" s="47">
         <f>IF('Feedback Breakdown AE3'!G13=10,"X",0)</f>
@@ -7438,77 +7522,77 @@
         <f>IF('Feedback Breakdown AE3'!G13=7,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="152">
         <f>IF('Feedback Breakdown AE3'!G13=6,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="238"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="226">
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="152">
         <f>IF('Feedback Breakdown AE3'!G13=5,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="238"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="226">
+      <c r="L14" s="153"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="152">
         <f>IF('Feedback Breakdown AE3'!G13=4,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="238"/>
-      <c r="P14" s="227"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="Q14" s="49">
         <f>IF('Feedback Breakdown AE3'!G13=3,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="226">
+      <c r="R14" s="152">
         <f>IF('Feedback Breakdown AE3'!G13=2,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="227"/>
+      <c r="S14" s="154"/>
       <c r="T14" s="46" t="str">
         <f>IF('Feedback Breakdown AE3'!G13=0,"X",0)</f>
         <v>X</v>
       </c>
       <c r="U14" s="72"/>
     </row>
-    <row r="15" spans="2:22" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="209">
+    <row r="15" spans="2:22" ht="98.25" customHeight="1" thickBot="1">
+      <c r="B15" s="159">
         <v>3</v>
       </c>
       <c r="C15" s="85" t="str">
         <f>'Feedback Breakdown AE3'!C14</f>
         <v>Demonstration/presentation of Product - LO: 6 (KSB: CS3, CS4, CTK4, CTK5, CBS7, CBS14</v>
       </c>
-      <c r="D15" s="231" t="s">
+      <c r="D15" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="214" t="s">
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="215"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="214" t="s">
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="215"/>
-      <c r="M15" s="216"/>
-      <c r="N15" s="214" t="s">
+      <c r="L15" s="165"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="215"/>
-      <c r="P15" s="216"/>
-      <c r="Q15" s="228" t="s">
+      <c r="O15" s="165"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="229"/>
-      <c r="S15" s="229"/>
-      <c r="T15" s="230"/>
-    </row>
-    <row r="16" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="210"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="157"/>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="160"/>
       <c r="C16" s="86"/>
       <c r="D16" s="46">
         <f>IF('Feedback Breakdown AE3'!G14=10,"X",0)</f>
@@ -7526,88 +7610,88 @@
         <f>IF('Feedback Breakdown AE3'!G14=7,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="226">
+      <c r="H16" s="152">
         <f>IF('Feedback Breakdown AE3'!G14=6,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="238"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="226">
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="152">
         <f>IF('Feedback Breakdown AE3'!G14=5,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="238"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="226">
+      <c r="L16" s="153"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="152">
         <f>IF('Feedback Breakdown AE3'!G14=4,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="238"/>
-      <c r="P16" s="227"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="154"/>
       <c r="Q16" s="46">
         <f>IF('Feedback Breakdown AE3'!G14=3,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="226">
+      <c r="R16" s="152">
         <f>IF('Feedback Breakdown AE3'!G14=2,"X",0)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="227"/>
+      <c r="S16" s="154"/>
       <c r="T16" s="46" t="str">
         <f>IF('Feedback Breakdown AE3'!G14=0,"X",0)</f>
         <v>X</v>
       </c>
       <c r="U16" s="72"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="239"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="239"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="239"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="239"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
+    <row r="17" spans="3:16" ht="16.5">
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="19" spans="3:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="237"/>
-      <c r="N19" s="237"/>
+    <row r="19" spans="3:16" ht="15.95" customHeight="1">
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="237"/>
-      <c r="H20" s="237"/>
-      <c r="I20" s="237"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="237"/>
+    <row r="20" spans="3:16" ht="21" customHeight="1">
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16">
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -7623,7 +7707,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16">
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -7641,30 +7725,21 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="C19:N20"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
@@ -7681,21 +7756,30 @@
     <mergeCell ref="B6:C10"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C19:N20"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D12:H12 K12 N12 D14:H14 K14 N14 D16:H16 K16 N16">
@@ -7746,42 +7830,42 @@
   <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="56.1640625" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="56.125" customWidth="1"/>
+    <col min="12" max="12" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="242" t="s">
+    <row r="1" spans="2:13" ht="16.5">
+      <c r="B1" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
       <c r="I1" s="102"/>
       <c r="J1" s="102"/>
       <c r="K1" s="102"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="6.95" customHeight="1">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -7795,24 +7879,24 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="242" t="str">
+    <row r="3" spans="2:13" ht="16.5">
+      <c r="B3" s="282" t="str">
         <f>'Feedback Breakdown AE3'!C3</f>
         <v>School of Technology and Maritime Industries  - Computing</v>
       </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
       <c r="I3" s="102"/>
       <c r="J3" s="102"/>
       <c r="K3" s="102"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="9" customHeight="1">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -7826,21 +7910,21 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="243" t="str">
+    <row r="5" spans="2:13" ht="16.5">
+      <c r="B5" s="283" t="str">
         <f>('Feedback Breakdown AE3'!C6)</f>
         <v>Student Name/Group:</v>
       </c>
-      <c r="C5" s="243"/>
+      <c r="C5" s="283"/>
       <c r="D5" s="27">
         <f>'Feedback Breakdown AE3'!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="244">
+      <c r="E5" s="284">
         <f>'Feedback Breakdown AE3'!H4</f>
         <v>45658</v>
       </c>
-      <c r="F5" s="245"/>
+      <c r="F5" s="285"/>
       <c r="G5" s="44"/>
       <c r="H5" s="10"/>
       <c r="I5" s="103"/>
@@ -7849,7 +7933,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="8.1" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -7863,15 +7947,15 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="18">
       <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="246" t="str">
+      <c r="C7" s="286" t="str">
         <f>'Feedback Breakdown AE3'!D7</f>
         <v>Synoptic  Project and Presentation</v>
       </c>
-      <c r="D7" s="246"/>
+      <c r="D7" s="286"/>
       <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
@@ -7891,7 +7975,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="8.1" customHeight="1">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -7905,11 +7989,11 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="240" t="s">
+    <row r="9" spans="2:13" ht="16.5">
+      <c r="B9" s="280" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="241"/>
+      <c r="C9" s="281"/>
       <c r="D9" s="15" t="str">
         <f>'Feedback Breakdown AE3'!D8</f>
         <v>Presentation (20%)</v>
@@ -7933,7 +8017,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" ht="18">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -7951,16 +8035,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="39" customHeight="1" thickBot="1">
       <c r="B11" s="7"/>
       <c r="C11" s="53"/>
       <c r="D11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="247" t="s">
+      <c r="E11" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="248"/>
+      <c r="F11" s="279"/>
       <c r="G11" s="55" t="s">
         <v>40</v>
       </c>
@@ -7975,21 +8059,21 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="27.95" customHeight="1">
       <c r="B12" s="7"/>
-      <c r="C12" s="249">
+      <c r="C12" s="257">
         <v>1</v>
       </c>
-      <c r="D12" s="250" t="str">
+      <c r="D12" s="258" t="str">
         <f>'Rubric AE3'!C11</f>
         <v>Presentation - LO: 4 (KSB:CBS1, CBS2, CBS3, CBS5, CBS8)</v>
       </c>
-      <c r="E12" s="252">
+      <c r="E12" s="260">
         <f>'Feedback Breakdown AE3'!G12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="253"/>
-      <c r="G12" s="256">
+      <c r="F12" s="261"/>
+      <c r="G12" s="264">
         <v>0</v>
       </c>
       <c r="H12" s="104"/>
@@ -8003,13 +8087,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="23.1" customHeight="1">
       <c r="B13" s="7"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="264"/>
       <c r="H13" s="105"/>
       <c r="I13" s="80"/>
       <c r="J13" s="108" t="s">
@@ -8021,24 +8105,24 @@
       <c r="L13" s="45"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="27" customHeight="1">
       <c r="B14" s="7"/>
-      <c r="C14" s="279">
+      <c r="C14" s="270">
         <v>2</v>
       </c>
-      <c r="D14" s="280" t="str">
+      <c r="D14" s="271" t="str">
         <f>'Rubric AE3'!C13</f>
-        <v>Demonstration of Product - LO: 1,2,3,5 (KSB:  CS1, CS2, CS5, CS6, CS7, CTK1, CTK2, CTK3, CTK5, CTK7, CTK8, CTK9, CTK10, CBS6, CBS8, CBS9, CBS10, CBS11, CBS12, CBS13, CBS14)</v>
-      </c>
-      <c r="E14" s="282">
+        <v>Project management, implementation and evaluation - LO: 1,2,3,5 (KSB:  CS1, CS2, CS5, CS6, CS7, CTK1, CTK2, CTK3, CTK5, CTK7, CTK8, CTK9, CTK10, CBS6, CBS8, CBS9, CBS10, CBS11, CBS12, CBS13, CBS14)</v>
+      </c>
+      <c r="E14" s="273">
         <f>'Feedback Breakdown AE3'!G13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="283"/>
-      <c r="G14" s="286">
+      <c r="F14" s="274"/>
+      <c r="G14" s="277">
         <v>0</v>
       </c>
-      <c r="H14" s="273" t="s">
+      <c r="H14" s="256" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="80"/>
@@ -8051,14 +8135,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="35.1" customHeight="1">
       <c r="B15" s="7"/>
-      <c r="C15" s="279"/>
-      <c r="D15" s="281"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="273"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="256"/>
       <c r="I15" s="80"/>
       <c r="J15" s="108">
         <v>35</v>
@@ -8069,24 +8153,24 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="29.1" customHeight="1">
       <c r="B16" s="7"/>
-      <c r="C16" s="249">
+      <c r="C16" s="257">
         <v>3</v>
       </c>
-      <c r="D16" s="250" t="str">
+      <c r="D16" s="258" t="str">
         <f>'Rubric AE3'!C15</f>
         <v>Demonstration/presentation of Product - LO: 6 (KSB: CS3, CS4, CTK4, CTK5, CBS7, CBS14</v>
       </c>
-      <c r="E16" s="252">
+      <c r="E16" s="260">
         <f>'Feedback Breakdown AE3'!G14</f>
         <v>0</v>
       </c>
-      <c r="F16" s="253"/>
-      <c r="G16" s="256">
+      <c r="F16" s="261"/>
+      <c r="G16" s="264">
         <v>0</v>
       </c>
-      <c r="H16" s="273"/>
+      <c r="H16" s="256"/>
       <c r="I16" s="80"/>
       <c r="J16" s="108" t="s">
         <v>45</v>
@@ -8097,13 +8181,13 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="18.95" customHeight="1" thickBot="1">
       <c r="B17" s="7"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="254"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="256"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="263"/>
+      <c r="G17" s="264"/>
       <c r="H17" s="106"/>
       <c r="I17" s="80"/>
       <c r="J17" s="112">
@@ -8115,18 +8199,18 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="60" customHeight="1" thickBot="1">
       <c r="B18" s="7"/>
-      <c r="C18" s="274" t="s">
+      <c r="C18" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="275"/>
-      <c r="E18" s="276" t="str">
+      <c r="D18" s="266"/>
+      <c r="E18" s="267" t="str">
         <f>IF(H18&gt;=98,"100",IF(H18&gt;=90,"92",IF(H18&gt;=80,"83",IF(H18&gt;=70,"74",IF(H18&gt;=67,"68",IF(H18&gt;=64,"65",IF(H18&gt;=60,"62",IF(H18&gt;=57,"58",IF(H18&gt;=54,"55",IF(H18&gt;=50,"52",IF(H18&gt;=47,"48",IF(H18&gt;=44,"45",IF(H18&gt;=40,"42",IF(H18&gt;=34,"35",IF(H18&gt;=19,"20",IF(H18&gt;=14,"15",IF(H18&gt;=0,"0","")))))))))))))))))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="277"/>
-      <c r="G18" s="278"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="269"/>
       <c r="H18" s="90">
         <f>AVERAGE(G12:G17)</f>
         <v>0</v>
@@ -8137,16 +8221,16 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="63" customHeight="1" thickBot="1">
       <c r="B19" s="7"/>
-      <c r="C19" s="257" t="str">
+      <c r="C19" s="240" t="str">
         <f>IF(E18="0",K17,IF(E18="15",K16,IF(E18="20",K16,IF(E18="35",K15,IF(E18="42",K14,IF(E18="45",K14,IF(E18="48",K14,IF(E18="52",K13,IF(E18="55",K13,IF(E18="58",K13,IF(E18="62",K12,IF(E18="65",K12,IF(E18="68",K12,IF(E18="74",K11,IF(E18="83",K10,IF(E18="92",K9,IF(E18&gt;="100",K7,)))))))))))))))))</f>
         <v>No attempt, No submission, Absent</v>
       </c>
-      <c r="D19" s="258"/>
-      <c r="E19" s="258"/>
-      <c r="F19" s="258"/>
-      <c r="G19" s="259"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="241"/>
+      <c r="G19" s="242"/>
       <c r="H19" s="17"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
@@ -8154,7 +8238,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="18.75" thickBot="1">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -8167,22 +8251,22 @@
       <c r="K20" s="43"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="47.1" customHeight="1" thickBot="1">
       <c r="B21" s="7"/>
-      <c r="C21" s="260" t="s">
+      <c r="C21" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="262"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="245"/>
       <c r="H21" s="16"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="18">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -8195,91 +8279,91 @@
       <c r="K22" s="42"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="7"/>
-      <c r="C23" s="263" t="s">
+      <c r="C23" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="263"/>
-      <c r="E23" s="263"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="33.950000000000003" customHeight="1">
       <c r="B24" s="7"/>
-      <c r="C24" s="264"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="265"/>
-      <c r="F24" s="265"/>
-      <c r="G24" s="265"/>
-      <c r="H24" s="266"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="249"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" s="16"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="268"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="268"/>
-      <c r="G25" s="268"/>
-      <c r="H25" s="269"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="252"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" s="16"/>
-      <c r="C26" s="267"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="268"/>
-      <c r="F26" s="268"/>
-      <c r="G26" s="268"/>
-      <c r="H26" s="269"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="252"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C27" s="267"/>
-      <c r="D27" s="268"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="268"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="269"/>
+    <row r="27" spans="2:13">
+      <c r="C27" s="250"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="252"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="267"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="269"/>
+    <row r="28" spans="2:13" ht="124.5" customHeight="1">
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="252"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="270"/>
-      <c r="D29" s="271"/>
-      <c r="E29" s="271"/>
-      <c r="F29" s="271"/>
-      <c r="G29" s="271"/>
-      <c r="H29" s="272"/>
+    <row r="29" spans="2:13" ht="16.5" thickBot="1">
+      <c r="C29" s="253"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="255"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -8290,32 +8374,42 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:11">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:11">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:11">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="26">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H29"/>
@@ -8332,16 +8426,6 @@
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -8366,12 +8450,12 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="16.5" thickBot="1">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8395,11 +8479,11 @@
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="307" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D2" s="308"/>
       <c r="E2" s="308"/>
@@ -8421,7 +8505,7 @@
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
     </row>
-    <row r="3" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="16.5" thickBot="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="310"/>
@@ -8445,7 +8529,7 @@
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -8469,11 +8553,11 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="287" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="287"/>
       <c r="E5" s="287"/>
@@ -8495,7 +8579,7 @@
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="287"/>
@@ -8519,7 +8603,7 @@
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="287"/>
@@ -8543,7 +8627,7 @@
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="287"/>
@@ -8567,7 +8651,7 @@
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="287"/>
@@ -8591,7 +8675,7 @@
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="287"/>
@@ -8615,7 +8699,7 @@
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
     </row>
-    <row r="11" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="16.5" thickBot="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="287"/>
@@ -8639,7 +8723,7 @@
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="288" t="str">
@@ -8666,7 +8750,7 @@
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="291"/>
@@ -8693,7 +8777,7 @@
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="291"/>
@@ -8717,7 +8801,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="291"/>
@@ -8741,7 +8825,7 @@
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="291"/>
@@ -8765,7 +8849,7 @@
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="15.75" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="291"/>
@@ -8789,7 +8873,7 @@
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="15.75" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="291"/>
@@ -8813,7 +8897,7 @@
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="15.75" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="291"/>
@@ -8837,7 +8921,7 @@
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="291"/>
@@ -8861,7 +8945,7 @@
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
     </row>
-    <row r="21" spans="1:22" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="44.25" customHeight="1" thickBot="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="294"/>
@@ -8885,11 +8969,11 @@
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="297" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D22" s="298"/>
       <c r="E22" s="298"/>
@@ -8911,7 +8995,7 @@
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="300"/>
@@ -8935,7 +9019,7 @@
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="300"/>
@@ -8959,7 +9043,7 @@
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="300"/>
@@ -8983,7 +9067,7 @@
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="300"/>
@@ -9007,7 +9091,7 @@
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="300"/>
@@ -9031,7 +9115,7 @@
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="300"/>
@@ -9055,7 +9139,7 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="300"/>
@@ -9079,7 +9163,7 @@
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="300"/>
@@ -9103,7 +9187,7 @@
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
-    <row r="31" spans="1:22" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="66.75" customHeight="1" thickBot="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="303"/>
@@ -9127,7 +9211,7 @@
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9151,7 +9235,7 @@
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9175,7 +9259,7 @@
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9199,7 +9283,7 @@
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9223,7 +9307,7 @@
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9247,7 +9331,7 @@
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -9271,7 +9355,7 @@
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -9295,7 +9379,7 @@
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -9319,7 +9403,7 @@
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -9343,7 +9427,7 @@
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -9367,7 +9451,7 @@
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -9391,7 +9475,7 @@
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -9414,7 +9498,7 @@
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -9437,7 +9521,7 @@
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -9460,7 +9544,7 @@
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -9483,7 +9567,7 @@
       <c r="T46" s="16"/>
       <c r="U46" s="16"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -9506,7 +9590,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -9529,7 +9613,7 @@
       <c r="T48" s="16"/>
       <c r="U48" s="16"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -9552,7 +9636,7 @@
       <c r="T49" s="16"/>
       <c r="U49" s="16"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -9575,7 +9659,7 @@
       <c r="T50" s="16"/>
       <c r="U50" s="16"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -9636,6 +9720,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBB0BA5D77E6E34E8F4645A4AAF47691" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="367d8aaa571c47ba91d577d038191776">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="053e24c04cd5e2396c698d4aab15ed79">
     <xsd:element name="properties">
@@ -9749,15 +9842,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8471C4F8-A371-4DEA-A525-DD268A639D62}">
   <ds:schemaRefs>
@@ -9768,6 +9852,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7423693-E3D0-4455-B2B0-532EE0695A82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93E45B2-D7B6-4B6A-BF91-E9A2B9E4C37F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9781,12 +9873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7423693-E3D0-4455-B2B0-532EE0695A82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>